--- a/data/trans_media/MCS12_SP-Provincia-trans_media.xlsx
+++ b/data/trans_media/MCS12_SP-Provincia-trans_media.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>51,04; 52,99</t>
+          <t>50,89; 53,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>48,42; 50,85</t>
+          <t>48,41; 50,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>53,29; 54,44</t>
+          <t>53,2; 54,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>49,33; 51,79</t>
+          <t>49,38; 51,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>45,34; 48,24</t>
+          <t>45,33; 48,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>53,04; 54,0</t>
+          <t>53,02; 53,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>50,59; 52,2</t>
+          <t>50,53; 52,03</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>47,37; 49,23</t>
+          <t>47,29; 49,19</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>53,34; 54,04</t>
+          <t>53,3; 54,06</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>50,7; 52,03</t>
+          <t>50,72; 52,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>53,62; 55,23</t>
+          <t>53,6; 55,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>54,89; 56,08</t>
+          <t>54,93; 56,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>52,88; 54,74</t>
+          <t>52,83; 54,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>47,39; 49,08</t>
+          <t>47,4; 49,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>50,25; 52,38</t>
+          <t>50,24; 52,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,79; 54,4</t>
+          <t>52,85; 54,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>51,28; 52,8</t>
+          <t>51,3; 52,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>49,26; 50,37</t>
+          <t>49,31; 50,34</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>52,25; 53,53</t>
+          <t>52,21; 53,55</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>54,0; 55,01</t>
+          <t>53,98; 54,99</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>52,31; 53,5</t>
+          <t>52,29; 53,53</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>54,37; 55,38</t>
+          <t>54,4; 55,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>51,74; 53,44</t>
+          <t>51,68; 53,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,43; 53,51</t>
+          <t>52,33; 53,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>53,69; 55,36</t>
+          <t>53,73; 55,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>53,22; 54,43</t>
+          <t>53,21; 54,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>49,15; 51,1</t>
+          <t>49,26; 51,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>51,01; 52,43</t>
+          <t>50,99; 52,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>52,08; 53,62</t>
+          <t>52,11; 53,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>54,0; 54,78</t>
+          <t>53,98; 54,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>50,7; 52,01</t>
+          <t>50,79; 52,03</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>51,85; 52,75</t>
+          <t>51,84; 52,78</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>53,11; 54,24</t>
+          <t>53,02; 54,23</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,96; 54,11</t>
+          <t>52,93; 54,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>50,15; 51,37</t>
+          <t>50,18; 51,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>51,19; 52,95</t>
+          <t>51,03; 52,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>52,92; 54,89</t>
+          <t>52,8; 54,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>51,03; 52,68</t>
+          <t>50,95; 52,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,82; 46,65</t>
+          <t>44,8; 46,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>47,5; 50,02</t>
+          <t>47,57; 50,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,53; 52,72</t>
+          <t>50,69; 52,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>52,17; 53,2</t>
+          <t>52,13; 53,18</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>47,7; 48,86</t>
+          <t>47,76; 48,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>49,63; 51,19</t>
+          <t>49,62; 51,15</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>51,89; 53,4</t>
+          <t>51,9; 53,47</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>49,77; 51,89</t>
+          <t>49,76; 51,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>52,72; 54,63</t>
+          <t>52,75; 54,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>47,94; 49,62</t>
+          <t>47,88; 49,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>48,14; 49,75</t>
+          <t>48,1; 49,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>48,02; 50,38</t>
+          <t>48,15; 50,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>47,35; 50,52</t>
+          <t>47,25; 50,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>46,57; 48,42</t>
+          <t>46,39; 48,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>46,28; 47,75</t>
+          <t>46,34; 47,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>49,2; 50,8</t>
+          <t>49,31; 50,91</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>50,36; 52,27</t>
+          <t>50,26; 52,26</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>47,47; 48,76</t>
+          <t>47,49; 48,81</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>47,42; 48,55</t>
+          <t>47,39; 48,49</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>54,07; 55,08</t>
+          <t>54,1; 55,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>50,98; 52,79</t>
+          <t>51,06; 52,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>52,52; 54,42</t>
+          <t>52,54; 54,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>52,69; 54,51</t>
+          <t>52,75; 54,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>52,08; 53,66</t>
+          <t>52,09; 53,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>49,3; 51,42</t>
+          <t>49,34; 51,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>49,48; 52,18</t>
+          <t>49,48; 52,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>51,8; 53,57</t>
+          <t>51,82; 53,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>53,32; 54,2</t>
+          <t>53,26; 54,23</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>50,31; 51,84</t>
+          <t>50,42; 51,9</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>51,33; 52,96</t>
+          <t>51,27; 52,94</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>52,59; 53,81</t>
+          <t>52,56; 53,79</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>53,25; 54,22</t>
+          <t>53,29; 54,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>51,47; 52,58</t>
+          <t>51,5; 52,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>51,2; 52,45</t>
+          <t>51,13; 52,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>49,86; 51,7</t>
+          <t>49,92; 51,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>51,01; 52,27</t>
+          <t>51,01; 52,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>50,08; 51,35</t>
+          <t>50,06; 51,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>49,21; 50,79</t>
+          <t>49,23; 50,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>46,64; 49,07</t>
+          <t>46,62; 49,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>52,29; 53,13</t>
+          <t>52,33; 53,14</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>50,94; 51,79</t>
+          <t>50,93; 51,78</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>50,36; 51,38</t>
+          <t>50,33; 51,35</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>48,09; 49,99</t>
+          <t>48,08; 49,92</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>50,0; 51,28</t>
+          <t>50,02; 51,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>50,13; 51,42</t>
+          <t>50,13; 51,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>52,03; 52,97</t>
+          <t>52,0; 52,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>51,31; 52,6</t>
+          <t>51,34; 52,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>48,79; 50,04</t>
+          <t>48,67; 50,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>47,91; 49,22</t>
+          <t>47,86; 49,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>51,06; 52,12</t>
+          <t>51,0; 52,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>48,5; 49,77</t>
+          <t>48,49; 49,81</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>49,56; 50,53</t>
+          <t>49,56; 50,51</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>49,2; 50,14</t>
+          <t>49,1; 50,08</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>51,7; 52,38</t>
+          <t>51,66; 52,41</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>50,07; 51,03</t>
+          <t>50,07; 51,11</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>52,29; 52,81</t>
+          <t>52,32; 52,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>51,7; 52,3</t>
+          <t>51,72; 52,3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>52,19; 52,7</t>
+          <t>52,18; 52,71</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>52,28; 52,92</t>
+          <t>52,29; 52,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>50,46; 51,07</t>
+          <t>50,47; 51,05</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>48,86; 49,56</t>
+          <t>48,85; 49,57</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>50,27; 50,95</t>
+          <t>50,26; 50,93</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>49,88; 50,84</t>
+          <t>49,93; 50,82</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>51,46; 51,85</t>
+          <t>51,43; 51,83</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>50,39; 50,83</t>
+          <t>50,36; 50,83</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>51,28; 51,71</t>
+          <t>51,3; 51,71</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>51,13; 51,72</t>
+          <t>51,1; 51,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/MCS12_SP-Provincia-trans_media.xlsx
+++ b/data/trans_media/MCS12_SP-Provincia-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>50,89; 53,05</t>
+          <t>50,94; 53,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>48,41; 50,89</t>
+          <t>48,51; 50,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>49,38; 51,75</t>
+          <t>49,45; 51,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>45,33; 48,22</t>
+          <t>45,41; 48,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>50,53; 52,03</t>
+          <t>50,6; 52,19</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>47,29; 49,19</t>
+          <t>47,34; 49,24</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>50,72; 52,04</t>
+          <t>50,74; 52,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>53,6; 55,26</t>
+          <t>53,67; 55,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>54,93; 56,07</t>
+          <t>54,89; 56,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>47,4; 49,08</t>
+          <t>47,38; 48,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>50,24; 52,32</t>
+          <t>50,39; 52,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,85; 54,43</t>
+          <t>52,73; 54,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>49,31; 50,34</t>
+          <t>49,24; 50,33</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>52,21; 53,55</t>
+          <t>52,14; 53,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>53,98; 54,99</t>
+          <t>54,0; 55,02</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>54,4; 55,39</t>
+          <t>54,42; 55,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>51,68; 53,47</t>
+          <t>51,67; 53,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,33; 53,47</t>
+          <t>52,38; 53,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>53,21; 54,44</t>
+          <t>53,26; 54,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>49,26; 51,1</t>
+          <t>49,29; 51,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>50,99; 52,32</t>
+          <t>51,0; 52,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>53,98; 54,77</t>
+          <t>54,02; 54,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>50,79; 52,03</t>
+          <t>50,79; 52,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>51,84; 52,78</t>
+          <t>51,88; 52,76</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1149,12 +1149,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>50,18; 51,37</t>
+          <t>50,24; 51,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>51,03; 52,93</t>
+          <t>51,05; 52,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>50,95; 52,7</t>
+          <t>51,0; 52,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,8; 46,62</t>
+          <t>44,83; 46,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>47,57; 50,02</t>
+          <t>47,58; 50,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>52,13; 53,18</t>
+          <t>52,14; 53,16</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>47,76; 48,83</t>
+          <t>47,69; 48,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>49,62; 51,15</t>
+          <t>49,61; 51,21</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>49,76; 51,84</t>
+          <t>49,71; 51,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>52,75; 54,68</t>
+          <t>52,88; 54,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>47,88; 49,64</t>
+          <t>47,86; 49,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>48,15; 50,53</t>
+          <t>48,04; 50,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>47,25; 50,62</t>
+          <t>47,3; 50,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>46,39; 48,41</t>
+          <t>46,45; 48,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>49,31; 50,91</t>
+          <t>49,23; 50,85</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>50,26; 52,26</t>
+          <t>50,32; 52,33</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>47,49; 48,81</t>
+          <t>47,4; 48,74</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>54,1; 55,07</t>
+          <t>54,09; 55,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>51,06; 52,82</t>
+          <t>50,92; 52,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>52,54; 54,45</t>
+          <t>52,61; 54,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>52,09; 53,6</t>
+          <t>52,13; 53,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>49,34; 51,5</t>
+          <t>49,08; 51,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>49,48; 52,16</t>
+          <t>49,32; 52,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>53,26; 54,23</t>
+          <t>53,33; 54,22</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>50,42; 51,9</t>
+          <t>50,35; 51,92</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>51,27; 52,94</t>
+          <t>51,29; 52,97</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>53,29; 54,31</t>
+          <t>53,23; 54,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>51,5; 52,56</t>
+          <t>51,43; 52,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>51,13; 52,42</t>
+          <t>51,09; 52,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>51,01; 52,36</t>
+          <t>50,98; 52,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>50,06; 51,32</t>
+          <t>50,09; 51,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>49,23; 50,79</t>
+          <t>49,17; 50,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>52,33; 53,14</t>
+          <t>52,29; 53,18</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>50,93; 51,78</t>
+          <t>50,97; 51,8</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>50,33; 51,35</t>
+          <t>50,38; 51,39</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>50,02; 51,28</t>
+          <t>49,96; 51,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>50,13; 51,43</t>
+          <t>50,14; 51,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>52,0; 52,96</t>
+          <t>51,96; 52,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>48,67; 50,05</t>
+          <t>48,64; 50,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>47,86; 49,22</t>
+          <t>47,8; 49,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>51,0; 52,14</t>
+          <t>51,02; 52,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>49,56; 50,51</t>
+          <t>49,54; 50,5</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>49,1; 50,08</t>
+          <t>49,17; 50,11</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>51,66; 52,41</t>
+          <t>51,66; 52,39</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>52,32; 52,8</t>
+          <t>52,32; 52,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>51,72; 52,3</t>
+          <t>51,76; 52,32</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>52,18; 52,71</t>
+          <t>52,18; 52,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>50,47; 51,05</t>
+          <t>50,47; 51,07</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>48,85; 49,57</t>
+          <t>48,9; 49,59</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>50,26; 50,93</t>
+          <t>50,28; 50,95</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>51,43; 51,83</t>
+          <t>51,46; 51,86</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>50,36; 50,83</t>
+          <t>50,38; 50,84</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>51,3; 51,71</t>
+          <t>51,29; 51,7</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
